--- a/tlog.xlsx
+++ b/tlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>fecha</t>
   </si>
@@ -52,6 +52,12 @@
   <si>
     <t>interaces
 faciles</t>
+  </si>
+  <si>
+    <t>pruebas unitarias</t>
+  </si>
+  <si>
+    <t>profiler</t>
   </si>
 </sst>
 </file>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +474,42 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42571</v>
+        <v>42576</v>
+      </c>
+      <c r="B3">
+        <v>5.3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B4">
+        <v>6.3</v>
+      </c>
+      <c r="C4">
+        <v>7.1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
